--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/16zorrobet365BrokenIMGListWeb.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/16zorrobet365BrokenIMGListWeb.xlsx
@@ -12,219 +12,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
-  <si>
-    <t>140  Game ID = 82735  Game Provider Name = Playpearls   Game Name =  Andar Bahar  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>167  Game ID = 82733  Game Provider Name = Playpearls   Game Name =  Baccarat  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>178  Game ID = 81465  Game Provider Name = Leap   Game Name =  Banshee  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>373  Game ID = 82989  Game Provider Name = NoLimitCity   Game Name =  Dead Canary  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>471  Game ID = 81470  Game Provider Name = Leap   Game Name =  Football Cup World  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>522  Game ID = 82986  Game Provider Name = Booongo   Game Name =  Goddess of Egypt  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>538  Game ID = 82723  Game Provider Name = Playpearls   Game Name =  Golden Egg Keno  cod = 404   src = https://resources.zorrobet365.com/products/playpearls/web/GoldenEggKeno.png</t>
-  </si>
-  <si>
-    <t>586  Game ID = 81494  Game Provider Name = Playpearls   Game Name =  Hippie Roll  cod = 404   src = https://resources.zorrobet365.com/products/playpearls/web/HippieRoll.png</t>
-  </si>
-  <si>
-    <t>638  Game ID = 82720  Game Provider Name = Leap   Game Name =  Instant Euroleague Legends  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>651  Game ID = 80692  Game Provider Name = FelixGaming   Game Name =  It's a Joker  cod = 404   src = https://resources.zorrobet365.com/products/felixgaming/web/itsajoker.jpg</t>
-  </si>
-  <si>
-    <t>656  Game ID = 82725  Game Provider Name = Playpearls   Game Name =  Jacks or Better Saloon  cod = 404   src = https://resources.zorrobet365.com/products/playpearls/web/JacksorBetterSaloon.png</t>
-  </si>
-  <si>
-    <t>667  Game ID = 81444  Game Provider Name = KalambaNew   Game Name =  Joker Fortune Blitz  cod = 404   src = https://resources.zorrobet365.com/products/kalambanew/web/jokerfortune.jpg</t>
-  </si>
-  <si>
-    <t>717  Game ID = 82991  Game Provider Name = Fugaso   Game Name =  Lil' Santa  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>796  Game ID = 82990  Game Provider Name = PlaynGo   Game Name =  Mötley Crüe  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>815  Game ID = 81467  Game Provider Name = Leap   Game Name =  Nexus  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>845  Game ID = 82537  Game Provider Name = RealisticGames   Game Name =  Perfect Pairs 21+3 Blackjack (3 Box)  cod = 404   src = https://resources.zorrobet365.com/products/realistic/web/Perfect-Pairs-21+3-Blackjack-(3-Box).jpg</t>
-  </si>
-  <si>
-    <t>846  Game ID = 82538  Game Provider Name = RealisticGames   Game Name =  Perfect Pairs 21+3 Blackjack (5 Box)  cod = 404   src = https://resources.zorrobet365.com/products/realistic/web/Perfect-Pairs-21+3-Blackjack-(3-Box).jpg</t>
-  </si>
-  <si>
-    <t>895  Game ID = 80693  Game Provider Name = FelixGaming   Game Name =  Red Lion  cod = 404   src = https://resources.zorrobet365.com/products/felixgaming/web/redlion.jpg</t>
-  </si>
-  <si>
-    <t>897  Game ID = 82988  Game Provider Name = Caleta   Game Name =  Red Sheriff  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>972  Game ID = 82992  Game Provider Name = PlaynGo   Game Name =  Shamrock Miner  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>974  Game ID = 81466  Game Provider Name = Leap   Game Name =  Shields of Troy  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1004  Game ID = 82734  Game Provider Name = Playpearls   Game Name =  Space Hunters Halloween - Scratch Card  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1038  Game ID = 82549  Game Provider Name = RealisticGames   Game Name =  Sunken Treasure  cod = 404   src = https://resources.zorrobet365.com/products/realistic/web/sunkentreasure.jpg</t>
-  </si>
-  <si>
-    <t>1240  Game ID = 82490  Game Provider Name = PragmaticPlay   Game Name =  7 Piggies 5,000  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1269  Game ID = 80739  Game Provider Name = Spinthon   Game Name =  All the Vogue  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1278  Game ID = 82482  Game Provider Name = NetEnt   Game Name =  American Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1307  Game ID = 82483  Game Provider Name = NetEnt   Game Name =  Baccarat  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1346  Game ID = 82484  Game Provider Name = NetEnt   Game Name =  Blackjack  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1389  Game ID = 80720  Game Provider Name = Spinthon   Game Name =  Burning Wild  cod = 404   src = https://resources.zorrobet365.com/products/spinthon/web/Burning-Wild.jpg</t>
-  </si>
-  <si>
-    <t>1392  Game ID = 80349  Game Provider Name = NetEnt   Game Name =  Butterfly Staxx 2  cod = 404   src = https://resources.zorrobet365.com/products/netent/web/ButterflyStaxx2.jpg</t>
-  </si>
-  <si>
-    <t>1417  Game ID = 82481  Game Provider Name = NetEnt   Game Name =  Casino Hold'em  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1487  Game ID = 82494  Game Provider Name = PragmaticPlay   Game Name =  Diamond Strike 100,000  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1519  Game ID = 82798  Game Provider Name = Habanero   Game Name =  Dragon Tiger  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1566  Game ID = 82485  Game Provider Name = NetEnt   Game Name =  European Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1612  Game ID = 81653  Game Provider Name = Habanero   Game Name =  Fortune Dogs  cod = 404   src = https://resources.zorrobet365.com/products/Habanero/web/fortunedog.jpg</t>
-  </si>
-  <si>
-    <t>1618  Game ID = 82478  Game Provider Name = NetEnt   Game Name =  French Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1664  Game ID = 82495  Game Provider Name = PragmaticPlay   Game Name =  Gold Rush 250,000  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1716  Game ID = 80734  Game Provider Name = Spinthon   Game Name =  Her Majesty's Knights  cod = 404   src = https://resources.zorrobet365.com/products/spinthon/web/Her-Majesty.jpg</t>
-  </si>
-  <si>
-    <t>1721  Game ID = 81028  Game Provider Name = Yggdrasil   Game Name =  HippoPop™  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1727  Game ID = 23813  Game Provider Name = Amatic   Game Name =  Hot 27 dice  src = https://static.egamings.com/games/amaticdirect/hot27.jpg</t>
-  </si>
-  <si>
-    <t>1728  Game ID = 23807  Game Provider Name = Amatic   Game Name =  Hot 40  src = https://static.egamings.com/games/amaticdirect/hot40.jpg</t>
-  </si>
-  <si>
-    <t>1735  Game ID = 23814  Game Provider Name = Amatic   Game Name =  Hot Fruits 20  src = https://static.egamings.com/games/amaticdirect/always_hot_fruits.jpg</t>
-  </si>
-  <si>
-    <t>1736  Game ID = 23815  Game Provider Name = Amatic   Game Name =  Hot Fruits 40  src = https://static.egamings.com/games/amaticdirect/hotfruits40.jpg</t>
-  </si>
-  <si>
-    <t>1742  Game ID = 82492  Game Provider Name = PragmaticPlay   Game Name =  Hot Safari 50,000  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1743  Game ID = 23259  Game Provider Name = Amatic   Game Name =  Hot Scatter  src = https://static.egamings.com/games/amaticdirect/hotscatter.jpg</t>
-  </si>
-  <si>
-    <t>1744  Game ID = 23811  Game Provider Name = Amatic   Game Name =  Hot scatter dice  src = https://static.egamings.com/games/amaticdirect/hotscatter.jpg</t>
-  </si>
-  <si>
-    <t>1760  Game ID = 80961  Game Provider Name = Yggdrasil   Game Name =  Incinerator  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1767  Game ID = 80524  Game Provider Name = RedTiger   Game Name =  Jack in a pot  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1774  Game ID = 82480  Game Provider Name = NetEnt   Game Name =  Jacks or Better Double Up  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1777  Game ID = 81026  Game Provider Name = Yggdrasil   Game Name =  Jaguar Super Ways  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1863  Game ID = 23820  Game Provider Name = Amatic   Game Name =  Lucky Joker 20  src = https://static.egamings.com/games/amaticdirect/luckyjoker20.jpg</t>
-  </si>
-  <si>
-    <t>1864  Game ID = 23821  Game Provider Name = Amatic   Game Name =  Lucky Joker 40  src = https://static.egamings.com/games/amaticdirect/luckyjoker40.jpg</t>
-  </si>
-  <si>
-    <t>1865  Game ID = 23819  Game Provider Name = Amatic   Game Name =  Lucky Joker 5  src = https://static.egamings.com/games/amaticdirect/luckyjoker5.jpg</t>
-  </si>
-  <si>
-    <t>1886  Game ID = 23804  Game Provider Name = Amatic   Game Name =  Magic Scatter  cod = 404   src = https://resources.zorrobet365.com/products/amatic\web\MagicScatter.jpg</t>
-  </si>
-  <si>
-    <t>1966  Game ID = 82491  Game Provider Name = PragmaticPlay   Game Name =  Panda Gold 10,000  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>1973  Game ID = 23809  Game Provider Name = Amatic   Game Name =  Party Night  src = https://static.egamings.com/games/amaticdirect/party_night.jpg</t>
-  </si>
-  <si>
-    <t>1995  Game ID = 80716  Game Provider Name = PragmaticPlay   Game Name =  PIZZA! PIZZA? PIZZA!  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2011  Game ID = 82493  Game Provider Name = PragmaticPlay   Game Name =  Queen of Gold 100,000  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2063  Game ID = 80446  Game Provider Name = NetEnt   Game Name =  Rome: The Golden Age™  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2065  Game ID = 82498  Game Provider Name = PragmaticPlay   Game Name =  Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2066  Game ID = 82479  Game Provider Name = NetEnt   Game Name =  Roulette Advanced  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2089  Game ID = 80757  Game Provider Name = Spinthon   Game Name =  Sekabet Crown  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2111  Game ID = 82501  Game Provider Name = PragmaticPlay   Game Name =  Spaceman  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2124  Game ID = 82985  Game Provider Name = PragmaticPlay   Game Name =  Starlight Christmas  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2168  Game ID = 80001  Game Provider Name = PragmaticPlay   Game Name =  TestGame  src = https://static.egamings.com/games/pragmaticplay/vs20cm.jpg</t>
-  </si>
-  <si>
-    <t>2182  Game ID = 80749  Game Provider Name = Spinthon   Game Name =  The Healer  cod = 404   src = https://resources.zorrobet365.com/products/spinthon/web/The-Healer.jpg</t>
-  </si>
-  <si>
-    <t>2249  Game ID = 23801  Game Provider Name = Amatic   Game Name =  Ultra Seven  src = https://static.egamings.com/games/amaticdirect/ultraseven.jpg</t>
-  </si>
-  <si>
-    <t>2261  Game ID = 80426  Game Provider Name = NetEnt   Game Name =  Victorious MAX  cod = 404   src = https://resources.zorrobet365.com/products/netent/web/Victorious-Max.jpg</t>
-  </si>
-  <si>
-    <t>2334  Game ID = 82496  Game Provider Name = PragmaticPlay   Game Name =  Wolf Gold 1,000,000  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2335  Game ID = 81001  Game Provider Name = Yggdrasil   Game Name =  Wolf Hunters  cod = 403   src = https://resources.zorrobet365.com/products/</t>
-  </si>
-  <si>
-    <t>2352  Game ID = 80753  Game Provider Name = Spinthon   Game Name =  Zombielogy  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+  <si>
+    <t>3  Game ID = 80849  Game Provider Name = Booongo   Game Name =  15 Golden Eggs  src = https://resources.zorrobet365.com/products/booongo/web/15_golden-eggs.jpg</t>
+  </si>
+  <si>
+    <t>7  Game ID = 81967  Game Provider Name = PlaynGo   Game Name =  3 Clown Monty  src = https://agstatic.com/games/playngo/3_clown_monty.jpg</t>
+  </si>
+  <si>
+    <t>16  Game ID = 82084  Game Provider Name = PlaysonDirect   Game Name =  5 Fortunator  src = https://agstatic.com/games/playsondirect/5_fortunator.jpg</t>
+  </si>
+  <si>
+    <t>18  Game ID = 82075  Game Provider Name = PlaysonDirect   Game Name =  5 Super Sevens &amp; Fruits: 6 reels  src = https://agstatic.com/games/playsondirect/5_super_sevens_and_fruits_6reels.jpg</t>
+  </si>
+  <si>
+    <t>19  Game ID = 81789  Game Provider Name = PlaynGo   Game Name =  5x Magic  src = https://agstatic.com/games/playngo/5x_magic.jpg</t>
+  </si>
+  <si>
+    <t>28  Game ID = 80774  Game Provider Name = RealisticGames   Game Name =  8th Wonder  src = https://resources.zorrobet365.com/products/Realistic/web/8th_wonder-game-changer.jpg</t>
+  </si>
+  <si>
+    <t>29  Game ID = 80775  Game Provider Name = RealisticGames   Game Name =  8th Wonder Game Changer  src = https://resources.zorrobet365.com/products/Realistic/mob/8th_wonder-game-changer.jpg</t>
+  </si>
+  <si>
+    <t>32  Game ID = 81790  Game Provider Name = PlaynGo   Game Name =  Ace of Spades  src = https://agstatic.com/games/playngo/ace_of_spades.jpg</t>
+  </si>
+  <si>
+    <t>36  Game ID = 81979  Game Provider Name = PlaynGo   Game Name =  Agent of Hearts  src = https://agstatic.com/games/playngo/agent_destiny.jpg</t>
+  </si>
+  <si>
+    <t>39  Game ID = 81987  Game Provider Name = PlaynGo   Game Name =  Alice Cooper and the Tome of Madness  src = https://agstatic.com/games/playngo/alice_cooper_and_the_tome_of_madness.jpg</t>
+  </si>
+  <si>
+    <t>42  Game ID = 81587  Game Provider Name = RubyPlay   Game Name =  Ancient Pharaoh  src = https://resources.zorrobet365.com/products/rubyplay/web/ancientpharaoh.jpg</t>
+  </si>
+  <si>
+    <t>43  Game ID = 82735  Game Provider Name = Playpearls   Game Name =  Andar Bahar  src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>47  Game ID = 81598  Game Provider Name = RubyPlay   Game Name =  Arabian Secret  src = https://resources.zorrobet365.com/products/rubyplay/web/arabian.jpg</t>
+  </si>
+  <si>
+    <t>68  Game ID = 82733  Game Provider Name = Playpearls   Game Name =  Baccarat  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>259  Game ID = 82989  Game Provider Name = NoLimitCity   Game Name =  Dead Canary  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>407  Game ID = 82723  Game Provider Name = Playpearls   Game Name =  Golden Egg Keno  cod = 404   src = https://resources.zorrobet365.com/products/playpearls/web/GoldenEggKeno.png</t>
+  </si>
+  <si>
+    <t>453  Game ID = 81494  Game Provider Name = Playpearls   Game Name =  Hippie Roll  cod = 404   src = https://resources.zorrobet365.com/products/playpearls/web/HippieRoll.png</t>
+  </si>
+  <si>
+    <t>520  Game ID = 82725  Game Provider Name = Playpearls   Game Name =  Jacks or Better Saloon  cod = 404   src = https://resources.zorrobet365.com/products/playpearls/web/JacksorBetterSaloon.png</t>
+  </si>
+  <si>
+    <t>639  Game ID = 82990  Game Provider Name = PlaynGo   Game Name =  Mötley Crüe  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>684  Game ID = 82537  Game Provider Name = RealisticGames   Game Name =  Perfect Pairs 21+3 Blackjack (3 Box)  cod = 404   src = https://resources.zorrobet365.com/products/realistic/web/Perfect-Pairs-21+3-Blackjack-(3-Box).jpg</t>
+  </si>
+  <si>
+    <t>685  Game ID = 82538  Game Provider Name = RealisticGames   Game Name =  Perfect Pairs 21+3 Blackjack (5 Box)  cod = 404   src = https://resources.zorrobet365.com/products/realistic/web/Perfect-Pairs-21+3-Blackjack-(3-Box).jpg</t>
+  </si>
+  <si>
+    <t>733  Game ID = 82988  Game Provider Name = Caleta   Game Name =  Red Sheriff  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>803  Game ID = 82992  Game Provider Name = PlaynGo   Game Name =  Shamrock Miner  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>834  Game ID = 82734  Game Provider Name = Playpearls   Game Name =  Space Hunters Halloween - Scratch Card  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>867  Game ID = 82549  Game Provider Name = RealisticGames   Game Name =  Sunken Treasure  cod = 404   src = https://resources.zorrobet365.com/products/realistic/web/sunkentreasure.jpg</t>
+  </si>
+  <si>
+    <t>1076  Game ID = 85003  Game Provider Name = Leander   Game Name =  20,000 Leagues Under the Sea  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>1080  Game ID = 85005  Game Provider Name = Leander   Game Name =  3 Blind Mice  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>1274  Game ID = 85075  Game Provider Name = Wazdan   Game Name =  American Poker Gold  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>1280  Game ID = 82482  Game Provider Name = NetEnt   Game Name =  American Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>1407  Game ID = 82483  Game Provider Name = NetEnt   Game Name =  Baccarat  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>1545  Game ID = 82484  Game Provider Name = NetEnt   Game Name =  Blackjack  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>1753  Game ID = 80349  Game Provider Name = NetEnt   Game Name =  Butterfly Staxx 2  cod = 404   src = https://resources.zorrobet365.com/products/netent/web/ButterflyStaxx2.jpg</t>
+  </si>
+  <si>
+    <t>1834  Game ID = 82481  Game Provider Name = NetEnt   Game Name =  Casino Hold'em  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>1835  Game ID = 85269  Game Provider Name = Wazdan   Game Name =  Casino Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>1936  Game ID = 85314  Game Provider Name = Wazdan   Game Name =  Corrida Romance Deluxe  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>2103  Game ID = 86469  Game Provider Name = Funky   Game Name =  Domino QQ  cod = 404   src = https://s3-eu-west-1.amazonaws.com/static.qa.nektan.com/elite/games/images/domino-qq/tile-en.jpg</t>
+  </si>
+  <si>
+    <t>2307  Game ID = 82485  Game Provider Name = NetEnt   Game Name =  European Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>2351  Game ID = 85468  Game Provider Name = SpinMatic   Game Name =  Fall of the Beast  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>2491  Game ID = 82478  Game Provider Name = NetEnt   Game Name =  French Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>2663  Game ID = 86490  Game Provider Name = Wazdan   Game Name =  Gold Roulette  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>2948  Game ID = 80524  Game Provider Name = RedTiger   Game Name =  Jack in a pot  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>2964  Game ID = 82480  Game Provider Name = NetEnt   Game Name =  Jacks or Better Double Up  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3064  Game ID = 85785  Game Provider Name = Wazdan   Game Name =  Jumping Fruits  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3090  Game ID = 85800  Game Provider Name = Wazdan   Game Name =  KickOff  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3209  Game ID = 85858  Game Provider Name = Wazdan   Game Name =  Lost Treasure  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3276  Game ID = 85889  Game Provider Name = Wazdan   Game Name =  Lucky Queen  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3345  Game ID = 85928  Game Provider Name = Wazdan   Game Name =  Magic Stars  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3348  Game ID = 85931  Game Provider Name = Wazdan   Game Name =  Magic Stars 5  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3349  Game ID = 85932  Game Provider Name = Wazdan   Game Name =  Magic Stars 6  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3716  Game ID = 80716  Game Provider Name = PragmaticPlay   Game Name =  PIZZA! PIZZA? PIZZA!  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3969  Game ID = 80446  Game Provider Name = NetEnt   Game Name =  Rome: The Golden Age™  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>3975  Game ID = 82479  Game Provider Name = NetEnt   Game Name =  Roulette Advanced  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4123  Game ID = 86244  Game Provider Name = Wazdan   Game Name =  Sizzling 777  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4136  Game ID = 86257  Game Provider Name = Wazdan   Game Name =  Slot Jam  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4176  Game ID = 86275  Game Provider Name = Wazdan   Game Name =  Space Gem™  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4183  Game ID = 82501  Game Provider Name = PragmaticPlay   Game Name =  Spaceman  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4190  Game ID = 86282  Game Provider Name = Wazdan   Game Name =  Spectrum  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4233  Game ID = 82985  Game Provider Name = PragmaticPlay   Game Name =  Starlight Christmas  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4326  Game ID = 86350  Game Provider Name = Wazdan   Game Name =  Super Hot  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4607  Game ID = 86722  Game Provider Name = Wazdan   Game Name =  Triple Star  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4625  Game ID = 86729  Game Provider Name = Wazdan   Game Name =  Turbo Play  cod = 403   src = https://resources.zorrobet365.com/products/</t>
+  </si>
+  <si>
+    <t>4685  Game ID = 80426  Game Provider Name = NetEnt   Game Name =  Victorious MAX  cod = 404   src = https://resources.zorrobet365.com/products/netent/web/Victorious-Max.jpg</t>
   </si>
 </sst>
 </file>
@@ -269,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -588,51 +561,6 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
